--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlowh\Documents\Doctorate\praxis_research\CARAT_CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FAEE7E-C49D-4144-8DDD-1DC715DB9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF5896-260D-446B-8E69-1775EC4C998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{421396BD-950A-45B5-9644-7D8D4AC5D6F0}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -517,7 +516,7 @@
   <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +612,12 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.76670000000000005</v>
+      </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
